--- a/lxml/schedule.xlsx
+++ b/lxml/schedule.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EAB9362-CFD9-4F77-A907-AB343DDB82DC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2279F73B-8C38-4140-A40F-5F601D52CA5F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
   <si>
     <t>Понедельник</t>
   </si>
@@ -40,9 +40,6 @@
     <t>Суббота</t>
   </si>
   <si>
-    <t>Воскресенье</t>
-  </si>
-  <si>
     <t>Информационные системы и технологии (лаб) Мельникова О.Л.</t>
   </si>
   <si>
@@ -62,6 +59,48 @@
   </si>
   <si>
     <t>ОФП 1-6 Общая и прикладная фзическая культура и спорт ШвалеваТ.А.</t>
+  </si>
+  <si>
+    <t>8:00</t>
+  </si>
+  <si>
+    <t>9:50</t>
+  </si>
+  <si>
+    <t>11:40</t>
+  </si>
+  <si>
+    <t>13:20</t>
+  </si>
+  <si>
+    <t>15:10</t>
+  </si>
+  <si>
+    <t>16:50</t>
+  </si>
+  <si>
+    <t>18:30</t>
+  </si>
+  <si>
+    <t>Время</t>
+  </si>
+  <si>
+    <t>9:30</t>
+  </si>
+  <si>
+    <t>11:20</t>
+  </si>
+  <si>
+    <t>13:10</t>
+  </si>
+  <si>
+    <t>14:50</t>
+  </si>
+  <si>
+    <t>16:40</t>
+  </si>
+  <si>
+    <t>18:20</t>
   </si>
 </sst>
 </file>
@@ -122,7 +161,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment shrinkToFit="1"/>
@@ -136,11 +175,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -423,15 +467,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.44140625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="76.88671875" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.21875" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="80.88671875" style="2" bestFit="1" customWidth="1"/>
@@ -442,7 +486,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="4"/>
+      <c r="A1" s="6" t="s">
+        <v>20</v>
+      </c>
       <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
@@ -461,97 +507,105 @@
       <c r="G1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="6"/>
+      <c r="I1" s="1"/>
+    </row>
+    <row r="2" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1"/>
-    </row>
-    <row r="2" spans="1:9" ht="36" x14ac:dyDescent="0.35">
-      <c r="A2" s="6">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>7</v>
-      </c>
       <c r="C2" s="4"/>
-      <c r="D2" s="7" t="s">
-        <v>9</v>
+      <c r="D2" s="5" t="s">
+        <v>8</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
-      <c r="H2" s="5"/>
+      <c r="H2" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="1:9" ht="36" x14ac:dyDescent="0.35">
-      <c r="A3" s="6">
-        <v>0.40972222222222227</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>7</v>
+    <row r="3" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A3" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>6</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
-      <c r="H3" s="5"/>
+      <c r="H3" s="6" t="s">
+        <v>22</v>
+      </c>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="1:9" ht="36" x14ac:dyDescent="0.35">
-      <c r="A4" s="6">
-        <v>0.4861111111111111</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>7</v>
+    <row r="4" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>6</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
-      <c r="E4" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>13</v>
+      <c r="E4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="G4" s="4"/>
-      <c r="H4" s="5"/>
+      <c r="H4" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:9" ht="36" x14ac:dyDescent="0.35">
-      <c r="A5" s="6">
-        <v>0.55555555555555558</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>8</v>
+    <row r="5" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A5" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
-      <c r="E5" s="7" t="s">
-        <v>11</v>
+      <c r="E5" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
-      <c r="H5" s="5"/>
+      <c r="H5" s="6" t="s">
+        <v>24</v>
+      </c>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:9" ht="36" x14ac:dyDescent="0.35">
-      <c r="A6" s="6">
-        <v>0.63194444444444442</v>
+    <row r="6" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A6" s="6" t="s">
+        <v>17</v>
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
-      <c r="E6" s="7" t="s">
-        <v>12</v>
+      <c r="E6" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
-      <c r="H6" s="5"/>
+      <c r="H6" s="6" t="s">
+        <v>25</v>
+      </c>
       <c r="I6" s="1"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="6">
-        <v>0.70138888888888884</v>
+      <c r="A7" s="6" t="s">
+        <v>18</v>
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -559,12 +613,14 @@
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
-      <c r="H7" s="5"/>
+      <c r="H7" s="6" t="s">
+        <v>26</v>
+      </c>
       <c r="I7" s="1"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="6">
-        <v>0.77083333333333337</v>
+      <c r="A8" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -572,7 +628,9 @@
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
-      <c r="H8" s="5"/>
+      <c r="H8" s="6" t="s">
+        <v>19</v>
+      </c>
       <c r="I8" s="1"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
@@ -580,6 +638,66 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="3"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="7"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="7"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="7"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="7"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="7"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="7"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="7"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="7"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="7"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="7"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="7"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="7"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="7"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="7"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="7"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="7"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="7"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="7"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="7"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
